--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00003.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP05MOAS-GL387\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="3120" windowWidth="23040" windowHeight="8952" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="3705" yWindow="3120" windowWidth="23040" windowHeight="8955" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Ref Des</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>N00140</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +411,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -469,6 +478,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -890,19 +902,19 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="19.88671875" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>37</v>
       </c>
@@ -940,7 +952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -984,11 +996,11 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -1008,21 +1020,21 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.44140625" customWidth="1"/>
+    <col min="1" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>31</v>
       </c>
@@ -1087,7 +1099,7 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -1126,7 +1138,7 @@
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -1165,7 +1177,7 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
@@ -1204,7 +1216,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="11"/>
@@ -1225,7 +1237,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
@@ -1259,7 +1271,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
@@ -1293,7 +1305,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
@@ -1327,7 +1339,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -1361,7 +1373,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="11"/>
@@ -1377,7 +1389,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
@@ -1407,7 +1419,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="11"/>
@@ -1423,7 +1435,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
@@ -1453,7 +1465,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11"/>
@@ -1469,7 +1481,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
@@ -1488,18 +1500,20 @@
       <c r="F16" s="21">
         <v>50165</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="G16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="27">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="11"/>
@@ -1515,7 +1529,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
@@ -1543,7 +1557,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="3120" windowWidth="23040" windowHeight="8955" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="3700" yWindow="3120" windowWidth="23040" windowHeight="8960" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -426,9 +421,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,6 +473,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -652,7 +647,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -687,7 +682,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -898,61 +893,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:14" ht="28">
+      <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -962,45 +957,47 @@
       <c r="C2" s="5">
         <v>387</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>3</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>42289</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>6.25E-2</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="27">
+        <v>42338</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="22">
         <v>1000</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="23">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
         <v>39.833333333333336</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="23">
         <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -1019,559 +1016,559 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="30.42578125" customWidth="1"/>
+    <col min="1" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>387</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <v>654587</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>0.61</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>387</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>654587</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>0.61</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>387</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>654587</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.61</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>387</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>654587</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>0.61</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-    </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1">
+      <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>387</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>3190</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>117</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1">
+      <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>387</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>3190</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>700</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1">
+      <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>387</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>3190</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>1.0760000000000001</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>387</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>3190</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>3.9E-2</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>387</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>9087</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="9" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1">
+      <c r="A14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>387</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>173</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9" t="s">
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1">
+      <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>387</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>50165</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="26">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" s="2" customFormat="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" s="2" customFormat="1">
+      <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>387</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>3</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
         <v>387</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="9" t="s">
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" s="2" customFormat="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00003.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="3120" windowWidth="23040" windowHeight="8960" tabRatio="377"/>
+    <workbookView xWindow="12760" yWindow="2340" windowWidth="23040" windowHeight="8960" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -893,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1257,7 +1257,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="17">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>19</v>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00003.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="2340" windowWidth="23040" windowHeight="8960" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="12765" yWindow="2340" windowWidth="23040" windowHeight="8955" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>Ref Des</t>
   </si>
@@ -189,6 +194,9 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000356</t>
   </si>
 </sst>
 </file>
@@ -897,19 +905,19 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
@@ -947,7 +955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="15">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -993,11 +1001,11 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -1016,22 +1024,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.5" customWidth="1"/>
+    <col min="1" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -1096,7 +1104,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
@@ -1135,7 +1143,7 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -1174,7 +1182,7 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -1213,7 +1221,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="10"/>
@@ -1234,7 +1242,7 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
@@ -1268,7 +1276,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
@@ -1302,7 +1310,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
@@ -1336,7 +1344,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1">
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -1370,7 +1378,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1">
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="10"/>
@@ -1386,7 +1394,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1">
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -1416,7 +1424,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1">
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="10"/>
@@ -1432,7 +1440,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1">
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>34</v>
       </c>
@@ -1462,7 +1470,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1">
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="10"/>
@@ -1478,7 +1486,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -1510,7 +1518,7 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1">
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="10"/>
@@ -1526,7 +1534,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1539,7 +1547,9 @@
       <c r="D18" s="10">
         <v>3</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
       <c r="F18" s="10">
         <v>387</v>
       </c>
@@ -1554,7 +1564,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12765" yWindow="2340" windowWidth="23040" windowHeight="8955" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="6200" yWindow="2860" windowWidth="27420" windowHeight="9320" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -901,23 +896,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
@@ -955,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -969,10 +964,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="19">
-        <v>42289</v>
+        <v>42291</v>
       </c>
       <c r="F2" s="6">
-        <v>6.25E-2</v>
+        <v>5.486111111111111E-2</v>
       </c>
       <c r="G2" s="27">
         <v>42338</v>
@@ -1001,11 +996,11 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -1024,22 +1019,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="30.42578125" customWidth="1"/>
+    <col min="1" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -1104,7 +1099,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
@@ -1143,7 +1138,7 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -1182,7 +1177,7 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -1221,7 +1216,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="10"/>
@@ -1242,7 +1237,7 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="2" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
@@ -1276,7 +1271,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
@@ -1310,7 +1305,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="2" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
@@ -1344,7 +1339,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="2" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -1378,7 +1373,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="2" customFormat="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="10"/>
@@ -1394,7 +1389,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -1424,7 +1419,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="2" customFormat="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="10"/>
@@ -1440,7 +1435,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="2" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>34</v>
       </c>
@@ -1470,7 +1465,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="2" customFormat="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="10"/>
@@ -1486,7 +1481,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="2" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -1518,7 +1513,7 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="2" customFormat="1">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="10"/>
@@ -1534,7 +1529,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="2" customFormat="1">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -1564,7 +1559,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="2" customFormat="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
